--- a/Fragen.xlsx
+++ b/Fragen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F332FD-6FE2-438E-A0BA-3DD1D8F352FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C2868B-5455-4CBB-A814-0D9BC5C6C346}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,8 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -358,35 +361,35 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="123.77734375" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="131.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
